--- a/data/performance_sheets_option3_flatten/window3/BA47 Overall Model Peformance Results.xlsx
+++ b/data/performance_sheets_option3_flatten/window3/BA47 Overall Model Peformance Results.xlsx
@@ -894,19 +894,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -924,19 +924,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02506994377512808</v>
+        <v>0.0214384699249211</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1204394333749333</v>
+        <v>0.1062717180983424</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1554113476381891</v>
+        <v>0.1366621296321068</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1583349101592194</v>
+        <v>0.1464188168403267</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.29366000081036</v>
+        <v>14.98606541430802</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.02413834745883446</v>
+        <v>0.0215863473799484</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1168507912056944</v>
+        <v>0.1067189126624353</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1501579673264291</v>
+        <v>0.1372493071833939</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1553652067189899</v>
+        <v>0.1469229300686196</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>16.6144468604101</v>
+        <v>15.0502129655358</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -1592,23 +1592,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03485647438575197</v>
+        <v>0.020010242888468</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1494625637586017</v>
+        <v>0.09603888492658839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1900878887310976</v>
+        <v>0.1250631711582544</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1866988869429916</v>
+        <v>0.1414575656812604</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.68009911413364</v>
+        <v>13.71036349197585</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -1622,23 +1622,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03551863922390231</v>
+        <v>0.0191245807366817</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.14971308303678</v>
+        <v>0.0889928296752288</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1897318938956792</v>
+        <v>0.1142608182215448</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.18846389368763</v>
+        <v>0.1382916510013592</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>21.69794069798611</v>
+        <v>12.57735190140397</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.002465494675561786</v>
+        <v>0.0024654933</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.03824586421251297</v>
+        <v>0.03824585</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.06212706863880157</v>
+        <v>0.062127043</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.04965374785010478</v>
+        <v>0.0496537337828478</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.014085561037064</v>
+        <v>6.014083698391914</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -1770,16 +1770,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01087490189820528</v>
+        <v>0.010874903</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.08725899457931519</v>
+        <v>0.08725899500000001</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1277647018432617</v>
+        <v>0.12776467</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1042827977099065</v>
+        <v>0.1042828021752765</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>13.13124597072601</v>
@@ -1802,19 +1802,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01869881153106689</v>
+        <v>0.018694904</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1069602072238922</v>
+        <v>0.10694311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1410258263349533</v>
+        <v>0.14100438</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1367435977699391</v>
+        <v>0.1367293081293978</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.1914045214653</v>
+        <v>15.1893749833107</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -1832,19 +1832,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.007071233354508877</v>
+        <v>0.007071234</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.06155534088611603</v>
+        <v>0.061555337</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.0788474977016449</v>
+        <v>0.07884749000000001</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.08409062584205731</v>
+        <v>0.0840906286108634</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>8.304160833358765</v>
+        <v>8.304160088300705</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -1864,19 +1864,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07052959501743317</v>
+        <v>0.070607975</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2425885200500488</v>
+        <v>0.24268085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3436414003372192</v>
+        <v>0.34366128</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2655740857414992</v>
+        <v>0.2657216120779655</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.22117066383362</v>
+        <v>42.22499430179596</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -1894,19 +1894,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.01682970859110355</v>
+        <v>0.01683702</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.09839022904634476</v>
+        <v>0.098445036</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.1288241147994995</v>
+        <v>0.12893039</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1297293667259019</v>
+        <v>0.1297575411038383</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>14.13278132677078</v>
+        <v>14.14429098367691</v>
       </c>
     </row>
   </sheetData>
@@ -2205,23 +2205,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -2235,23 +2235,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10">
@@ -2333,19 +2333,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1336579474116222</v>
+        <v>0.4606259670409698</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3015403207439115</v>
+        <v>0.5205990390076066</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.115546993731271</v>
+        <v>0.2283849049882418</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3655925975886577</v>
+        <v>0.6786943104527766</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.17975309491342</v>
+        <v>22.53810962248414</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -2363,19 +2363,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.4318035258278941</v>
+        <v>0.4212392833986621</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.5295030046170794</v>
+        <v>0.4829330343501296</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.197126125936152</v>
+        <v>0.2146173915491618</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.6571175890416373</v>
+        <v>0.6490294934736496</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.76315611636617</v>
+        <v>21.13455108848078</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -2907,23 +2907,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3423929111659405</v>
+        <v>0.5129885585728081</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4839555227707612</v>
+        <v>0.6056049126122839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1938734210168741</v>
+        <v>0.2631838228751581</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5851434962177573</v>
+        <v>0.7162321959901049</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.96800514515278</v>
+        <v>26.44856205396596</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -2937,23 +2937,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.3088447832401675</v>
+        <v>0.4302713048108553</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.4654480590533094</v>
+        <v>0.54830551586391</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1738569664602071</v>
+        <v>0.2541197322169417</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.5557380527192353</v>
+        <v>0.6559506877889948</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.09060244731515</v>
+        <v>23.81803057259127</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -3055,16 +3055,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.5240824222564697</v>
+        <v>0.5240825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5010470151901245</v>
+        <v>0.501047</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3025586307048798</v>
+        <v>0.3025586</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7239353716019612</v>
+        <v>0.7239354127690636</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>19.68205571174622</v>
@@ -3085,16 +3085,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.7121206521987915</v>
+        <v>0.71212053</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7094250917434692</v>
+        <v>0.70942503</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3711821436882019</v>
+        <v>0.37118214</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.8438724146450052</v>
+        <v>0.8438723440127078</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>26.0962188243866</v>
@@ -3117,19 +3117,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2779653370380402</v>
+        <v>0.27796537</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4608671367168427</v>
+        <v>0.4608672</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1638207286596298</v>
+        <v>0.16382073</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5272241810065621</v>
+        <v>0.5272242092699865</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.14108043909073</v>
+        <v>18.14108192920685</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -3147,19 +3147,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1806984096765518</v>
+        <v>0.18069847</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3957988023757935</v>
+        <v>0.3957988</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1444043070077896</v>
+        <v>0.1444043</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4250863555520829</v>
+        <v>0.4250864256609432</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>15.26560485363007</v>
+        <v>15.2656078338623</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -3179,19 +3179,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5452951192855835</v>
+        <v>0.5451202000000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5362093448638916</v>
+        <v>0.5360044</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3148460984230042</v>
+        <v>0.31477547</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7384410059616026</v>
+        <v>0.7383225444568029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.80792933702469</v>
+        <v>20.80145627260208</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -3209,19 +3209,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4965396523475647</v>
+        <v>0.5748651</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4908064901828766</v>
+        <v>0.5598304</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2964647710323334</v>
+        <v>0.32625365</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7046556977329884</v>
+        <v>0.7581985905868887</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>19.38009113073349</v>
+        <v>21.51041775941849</v>
       </c>
     </row>
   </sheetData>
@@ -3517,23 +3517,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -3551,19 +3551,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -3645,19 +3645,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1408443292089583</v>
+        <v>0.3665837753746928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3133846287408427</v>
+        <v>0.4491074003963883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1169136822588358</v>
+        <v>0.1735549458178749</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3752923250067317</v>
+        <v>0.6054616217190755</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.5858057811182</v>
+        <v>18.51146521603174</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -3675,19 +3675,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.543743623869112</v>
+        <v>0.4550796365579856</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.6499955999854622</v>
+        <v>0.4833066754924384</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2520025263077346</v>
+        <v>0.1823888613662455</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.7373897367533074</v>
+        <v>0.674595906123055</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>27.04244575039206</v>
+        <v>20.23671322979369</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -4219,53 +4219,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.9901185011639591</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.8403060148241878</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.3057837623508619</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.9950469844002136</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>38.13773351107104</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>3.636082291854108</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>1.802031276144567</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.6587131787063392</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>1.90685140791151</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>104.7303008137749</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.6436750472823586</v>
+        <v>1.258554396325895</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.6901213223468707</v>
+        <v>0.9200227991037826</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2597569254713324</v>
+        <v>0.3321844794346771</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.8022936166282009</v>
+        <v>1.121853108176777</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>30.67440185745149</v>
+        <v>44.09546774500067</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -4367,19 +4367,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3092139661312103</v>
+        <v>0.30921406</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3547294139862061</v>
+        <v>0.3547294</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1741885393857956</v>
+        <v>0.17418857</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5560701090071379</v>
+        <v>0.556070189398944</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>13.51484805345535</v>
+        <v>13.51484954357147</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -4397,19 +4397,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.6498585343360901</v>
+        <v>0.64985853</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.7051151394844055</v>
+        <v>0.7051152000000001</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3083121180534363</v>
+        <v>0.30831212</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.8061380367753962</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>24.44827705621719</v>
+        <v>24.4482770562172</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -4429,19 +4429,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2858689427375793</v>
+        <v>0.2858689</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4414015114307404</v>
+        <v>0.4414015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1606503874063492</v>
+        <v>0.16065036</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5346671326513155</v>
+        <v>0.5346671047813367</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.88301116228104</v>
+        <v>16.8830081820488</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -4459,19 +4459,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1005611568689346</v>
+        <v>0.100561135</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2469750940799713</v>
+        <v>0.24697503</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.090956911444664</v>
+        <v>0.09095689999999999</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3171137916725393</v>
+        <v>0.3171137564300748</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>9.307365864515305</v>
+        <v>9.307364374399183</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -4491,19 +4491,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6051278114318848</v>
+        <v>0.60481906</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6771664023399353</v>
+        <v>0.67689997</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2966363430023193</v>
+        <v>0.2965385</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7778996152665746</v>
+        <v>0.7777011375663201</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>23.648402094841</v>
+        <v>23.64054620265961</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -4521,19 +4521,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.622888445854187</v>
+        <v>1.6169391</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.211054682731628</v>
+        <v>1.2082317</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5045881867408752</v>
+        <v>0.5035628</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.27392638949595</v>
+        <v>1.271589189888219</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.91549205780029</v>
+        <v>37.84462511539459</v>
       </c>
     </row>
   </sheetData>
@@ -4833,19 +4833,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -4859,23 +4859,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -4957,19 +4957,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02544986690562601</v>
+        <v>0.2771438238530857</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1310614917356446</v>
+        <v>0.393654174471427</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04662453162893012</v>
+        <v>0.1359384091540244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1595301441910776</v>
+        <v>0.5264445116563432</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.765421001351303</v>
+        <v>15.34624049250984</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -4987,19 +4987,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1257272827346897</v>
+        <v>0.2615726151820416</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.2932312417948107</v>
+        <v>0.3815426853710403</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1057463284917834</v>
+        <v>0.1313176967025438</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3545804319681075</v>
+        <v>0.5114417026231256</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.36888077758185</v>
+        <v>14.83154141884401</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -5531,23 +5531,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.262405961308577</v>
+        <v>3.049707366503073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.051402340560426</v>
+        <v>1.52235328118512</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3817444481449406</v>
+        <v>0.5425068594914141</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.123568405264485</v>
+        <v>1.746341136921155</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>49.33337541641126</v>
+        <v>85.06510234468587</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -5561,23 +5561,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>1.834166403530452</v>
+        <v>2.92074341237477</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>1.14669439114793</v>
+        <v>1.457425041816795</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.4061029749656641</v>
+        <v>0.5207435921012858</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>1.354313997391466</v>
+        <v>1.709018259813151</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>58.07544514961383</v>
+        <v>81.60956331828605</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -5679,19 +5679,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2112644612789154</v>
+        <v>0.2112645</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4034264385700226</v>
+        <v>0.40342653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1425492316484451</v>
+        <v>0.14254929</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4596351392995486</v>
+        <v>0.4596351879288606</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>15.65621346235275</v>
+        <v>15.65621495246887</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -5709,19 +5709,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3443491458892822</v>
+        <v>0.34434888</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5517545342445374</v>
+        <v>0.55175436</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2085689008235931</v>
+        <v>0.20856886</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5868127008588705</v>
+        <v>0.5868124723183555</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>18.5969278216362</v>
+        <v>18.59692186117172</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -5741,19 +5741,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1188185885548592</v>
+        <v>0.118818566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.285676896572113</v>
+        <v>0.28567687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1003915667533875</v>
+        <v>0.10039156</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3447007231713609</v>
+        <v>0.3447006907494056</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.79359799623489</v>
+        <v>10.79359650611877</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -5771,16 +5771,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1598493903875351</v>
+        <v>0.15984932</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3486987948417664</v>
+        <v>0.3486988</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1217945590615273</v>
+        <v>0.12179457</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.3998116936603219</v>
+        <v>0.3998116004841894</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>13.20631355047226</v>
@@ -5803,19 +5803,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2672679424285889</v>
+        <v>0.26727852</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4631125926971436</v>
+        <v>0.46312323</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1770833879709244</v>
+        <v>0.17708729</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5169796344427785</v>
+        <v>0.5169898666831261</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.89547544717789</v>
+        <v>15.89580327272415</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -5833,19 +5833,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.08625110238790512</v>
+        <v>0.08624336000000001</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2438215464353561</v>
+        <v>0.24381062</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.08668264746665955</v>
+        <v>0.08667912</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2936853799355785</v>
+        <v>0.2936722003095712</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>9.056436270475388</v>
+        <v>9.056008607149124</v>
       </c>
     </row>
   </sheetData>
@@ -6139,23 +6139,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07104648092786248</v>
+        <v>0.0391078983929872</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2083070480006544</v>
+        <v>0.1542815605192919</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.318157745146223</v>
+        <v>0.3453942811802127</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.266545457526221</v>
+        <v>0.1977571702694677</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>38.324410485385</v>
+        <v>25.21479245558708</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -6169,23 +6169,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 30, 'max_features': 'sqrt', 'max_depth': 11, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07104648092786248</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2083070480006544</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.318157745146223</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.266545457526221</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>38.324410485385</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -6263,23 +6263,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4940958805296309</v>
+        <v>0.4357310941631132</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.587322878439373</v>
+        <v>0.6460755801692886</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.47060352983894</v>
+        <v>1.05024779717236</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7029195405803077</v>
+        <v>0.6600993062889199</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>128.0849738559002</v>
+        <v>166.3352566060653</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -6293,23 +6293,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.3506672841065752</v>
+        <v>0.4501835327600004</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.4853348753837012</v>
+        <v>0.657708795680623</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.193904683134807</v>
+        <v>0.998708264983826</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.5921716677675276</v>
+        <v>0.6709571765470583</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>100.0316918607779</v>
+        <v>166.9073089395205</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -6841,23 +6841,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07104647936608449</v>
+        <v>0.0389837977522013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.208307045930266</v>
+        <v>0.1513947760865467</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.318157728768604</v>
+        <v>0.2748461144600707</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2665454545965556</v>
+        <v>0.1974431506844472</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>38.32441026911053</v>
+        <v>25.37185578072394</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -6871,23 +6871,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.07104647936608449</v>
+        <v>0.0260105840028884</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.208307045930266</v>
+        <v>0.0989141663331605</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.318157728768604</v>
+        <v>0.1241282164516779</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2665454545965556</v>
+        <v>0.1612779712263534</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>38.32441026911053</v>
+        <v>14.23895622368177</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -6989,19 +6989,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.01681282185018063</v>
+        <v>0.016819248</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09565991163253784</v>
+        <v>0.09569462400000001</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2485173940658569</v>
+        <v>0.24858254</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1296642658953523</v>
+        <v>0.1296890433920517</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>16.89809262752533</v>
+        <v>16.9037789106369</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -7019,19 +7019,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.160307914018631</v>
+        <v>0.1591098</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2349849045276642</v>
+        <v>0.23196869</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3366554975509644</v>
+        <v>0.33342752</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4003847075234405</v>
+        <v>0.3988856992347568</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>43.63943338394165</v>
+        <v>43.27723979949951</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -7051,16 +7051,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08852316439151764</v>
+        <v>0.08852314999999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2507243156433105</v>
+        <v>0.25072432</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3441494703292847</v>
+        <v>0.34414944</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2975284261907047</v>
+        <v>0.297528401149128</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>42.66246259212494</v>
@@ -7081,19 +7081,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02113805711269379</v>
+        <v>0.021138059</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1156890764832497</v>
+        <v>0.11568907</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1767255663871765</v>
+        <v>0.17672557</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1453893294320246</v>
+        <v>0.1453893358377392</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>20.4429492354393</v>
+        <v>20.44294774532318</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -7113,19 +7113,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.64595353603363</v>
+        <v>1.638364</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.168167948722839</v>
+        <v>1.1628561</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.060646295547485</v>
+        <v>2.0590253</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.282947207032944</v>
+        <v>1.279985920783932</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>132.5051665306091</v>
+        <v>132.3819160461426</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -7143,19 +7143,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1716839075088501</v>
+        <v>0.17173073</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3405963778495789</v>
+        <v>0.34066242</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4974028468132019</v>
+        <v>0.4975057</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.4143475684842981</v>
+        <v>0.4144040624285929</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>59.92286801338196</v>
+        <v>59.93399620056152</v>
       </c>
     </row>
   </sheetData>
@@ -7449,23 +7449,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05863607043408339</v>
+        <v>0.0482758310538254</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1395060220612029</v>
+        <v>0.1728952840782994</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.424711814541688</v>
+        <v>0.5133696785912291</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2421488600718232</v>
+        <v>0.2197176166214839</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>26.58856900232968</v>
+        <v>29.91327163270417</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05863607043408339</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1395060220612029</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.424711814541688</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2421488600718232</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>26.58856900232968</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -7573,23 +7573,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04535182104352208</v>
+        <v>0.3062092579847067</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1227867387802354</v>
+        <v>0.5169107834403431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.232294739965326</v>
+        <v>1.011003365477663</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2129596699929873</v>
+        <v>0.5533617785723068</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.88865037272765</v>
+        <v>128.9203548183724</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -7603,23 +7603,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.05311266471127245</v>
+        <v>0.3509736514179006</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1408622325942571</v>
+        <v>0.5671650832373742</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.306962496974057</v>
+        <v>0.946770497608739</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2304618508805144</v>
+        <v>0.5924302924546487</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.74558768725772</v>
+        <v>144.7170297366151</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -8151,23 +8151,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05221256431542556</v>
+        <v>0.0340540221200432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1654377653458955</v>
+        <v>0.1409635394322295</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.233223104984405</v>
+        <v>0.4036194703984119</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2285006877788895</v>
+        <v>0.1845373190442607</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>32.42236033105063</v>
+        <v>25.32489942071352</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -8181,23 +8181,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04948103017988556</v>
+        <v>0.0125708383837863</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1613446083530265</v>
+        <v>0.08888015388101279</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.196622838733848</v>
+        <v>0.1764425393344481</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2224433190273099</v>
+        <v>0.1121197501949872</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>31.92145292128419</v>
+        <v>15.24221295242604</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -8299,19 +8299,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03950975835323334</v>
+        <v>0.039509784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1469172239303589</v>
+        <v>0.1469173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4869836568832397</v>
+        <v>0.48698384</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1987706174293206</v>
+        <v>0.1987706830251016</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>29.60174679756165</v>
+        <v>29.60177659988404</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -8329,19 +8329,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2407520264387131</v>
+        <v>0.24075213</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.4321983456611633</v>
+        <v>0.43219846</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.9565199613571167</v>
+        <v>0.9565203</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.4906648820108416</v>
+        <v>0.490664988303467</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>79.39647436141968</v>
+        <v>79.39648628234863</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -8361,19 +8361,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03948107361793518</v>
+        <v>0.039481077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1500426083803177</v>
+        <v>0.15004265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2068495005369186</v>
+        <v>0.20684963</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1986984489570444</v>
+        <v>0.1986984583312751</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.71256595849991</v>
+        <v>22.71257191896438</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -8391,16 +8391,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05596945434808731</v>
+        <v>0.055969443</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1954958736896515</v>
+        <v>0.19549583</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2800081968307495</v>
+        <v>0.28000817</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2365786430514963</v>
+        <v>0.2365786194317153</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>27.79825925827026</v>
@@ -8423,19 +8423,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1367016434669495</v>
+        <v>0.13619804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3042552173137665</v>
+        <v>0.30257466</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7795374989509583</v>
+        <v>0.77504396</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3697318534653857</v>
+        <v>0.3690501914689141</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>57.12144374847412</v>
+        <v>56.94892406463623</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -8453,19 +8453,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.2017397582530975</v>
+        <v>0.2017602</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3487188816070557</v>
+        <v>0.3487725</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.8492403626441956</v>
+        <v>0.8493128</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.449154492633768</v>
+        <v>0.4491772508111419</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>64.36424851417542</v>
+        <v>64.37390446662903</v>
       </c>
     </row>
   </sheetData>
@@ -8759,23 +8759,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08033955189997374</v>
+        <v>0.0574563238505272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1725177955108849</v>
+        <v>0.1883404668773241</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.569699396556588</v>
+        <v>0.642976757374811</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2834423255266823</v>
+        <v>0.2397004877978501</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>30.32964991164852</v>
+        <v>33.28195026169174</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -8789,23 +8789,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.07724027268408977</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1733781194039651</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1.53765258576544</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2779213426206951</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>30.6576546956119</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -8887,19 +8887,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8086272238144006</v>
+        <v>0.3734716040190489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7072299162563563</v>
+        <v>0.5734086214923206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.304271597381245</v>
+        <v>1.184685175452754</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.8992370231559644</v>
+        <v>0.6111232314509479</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>118.7229360898867</v>
+        <v>147.1700059212843</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -8913,23 +8913,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03532664594051049</v>
+        <v>0.4362302803201384</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1048968313675564</v>
+        <v>0.6096790027772522</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.140652235447861</v>
+        <v>0.9956842316086372</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1879538399195677</v>
+        <v>0.660477312494637</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.0082456474347</v>
+        <v>161.0462723609305</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -9461,23 +9461,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04767229408049341</v>
+        <v>0.0372428314013467</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1413554058763955</v>
+        <v>0.1546155738675652</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.273888781419403</v>
+        <v>0.4031367812804584</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.21833985911989</v>
+        <v>0.1929840185127947</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>27.75667499498661</v>
+        <v>28.81625829481132</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -9491,23 +9491,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05193733463458277</v>
+        <v>0.0250138118038255</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.144132618204037</v>
+        <v>0.1200283611572373</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>1.303468382476146</v>
+        <v>0.3098554109191136</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2278976406955166</v>
+        <v>0.1581575537362207</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>27.78202864546131</v>
+        <v>22.21063359036047</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -9609,19 +9609,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.175604522228241</v>
+        <v>0.1756045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3721565306186676</v>
+        <v>0.37215653</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.662419319152832</v>
+        <v>0.6624193</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.4190519326148502</v>
+        <v>0.4190519148352382</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>96.92748785018921</v>
+        <v>96.92748188972472</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -9639,16 +9639,16 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08621898293495178</v>
+        <v>0.086218975</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.2452206164598465</v>
+        <v>0.24522062</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4174248576164246</v>
+        <v>0.417425</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.2936306914049548</v>
+        <v>0.2936306787179623</v>
       </c>
       <c r="P22" s="8" t="n">
         <v>55.84641098976135</v>
@@ -9671,19 +9671,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.06358743458986282</v>
+        <v>0.06358743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2137191593647003</v>
+        <v>0.21371916</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3317079246044159</v>
+        <v>0.3317079</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2521654904816732</v>
+        <v>0.2521654757084764</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>40.48530757427216</v>
+        <v>40.48530459403992</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -9701,19 +9701,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.04423816129565239</v>
+        <v>0.044238295</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1744186729192734</v>
+        <v>0.17441885</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2585771083831787</v>
+        <v>0.25857732</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2103286982217415</v>
+        <v>0.2103290170330835</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>30.10209798812866</v>
+        <v>30.10213375091553</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -9733,19 +9733,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3331937491893768</v>
+        <v>0.33337513</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5184126496315002</v>
+        <v>0.5185615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.09765899181366</v>
+        <v>1.0982782</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5772293731172876</v>
+        <v>0.57738646167314</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>105.4413318634033</v>
+        <v>105.4638266563416</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -9763,19 +9763,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.1349339634180069</v>
+        <v>0.13481534</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.3038130700588226</v>
+        <v>0.30382168</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.6655075550079346</v>
+        <v>0.66532046</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.3673335860195837</v>
+        <v>0.3671720785595531</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>58.62203240394592</v>
+        <v>58.65767002105713</v>
       </c>
     </row>
   </sheetData>
@@ -10069,23 +10069,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5886589029332243</v>
+        <v>0.1605467903509526</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3683687787069905</v>
+        <v>0.2635298869288247</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6141325627803086</v>
+        <v>0.1283875925345773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7672410983082334</v>
+        <v>0.4006829049896596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>17.85899095725848</v>
+        <v>10.7104634776949</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -10099,23 +10099,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 10, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 20, 'max_features': None, 'max_depth': 14, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.5886589029332243</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3683687787069905</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.6141325627803086</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7672410983082334</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.85899095725848</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -10197,19 +10197,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.770264953402267</v>
+        <v>5.681166533309043</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.786370639442685</v>
+        <v>2.219304181943595</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9052216982368519</v>
+        <v>0.8550022375655045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.402137580032057</v>
+        <v>2.383519778250024</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>78.98542683165894</v>
+        <v>137.613853462276</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -10223,23 +10223,23 @@
       </c>
       <c r="K11" s="8" t="inlineStr">
         <is>
-          <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'invscaling', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.01, 'alpha': 0.01}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>6.30241379273137</v>
+        <v>7.333193661968391</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.43635939263768</v>
+        <v>2.667351962127888</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.001783721084132</v>
+        <v>0.9769300356649608</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>2.510460872575267</v>
+        <v>2.707987012887689</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>173.8949150152836</v>
+        <v>172.903870821447</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -10771,23 +10771,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5902369165733402</v>
+        <v>0.1748888617903801</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3987376779791368</v>
+        <v>0.2870941063842033</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6155327728130009</v>
+        <v>0.1207504469996514</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7682687788614999</v>
+        <v>0.4181971566024572</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>19.08593426789971</v>
+        <v>12.01992954486916</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -10801,23 +10801,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5902369165733402</v>
+        <v>0.1796892192421739</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3987376779791368</v>
+        <v>0.2868220031926021</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6155327728130009</v>
+        <v>0.1007106376478351</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7682687788614999</v>
+        <v>0.4238976518479124</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>19.08593426789971</v>
+        <v>11.22393389967448</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -10919,19 +10919,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4374255537986755</v>
+        <v>0.4374256</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5460954308509827</v>
+        <v>0.54609543</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2279218882322311</v>
+        <v>0.22792192</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6613815493334203</v>
+        <v>0.6613815943941291</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.72830849885941</v>
+        <v>21.72831147909164</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -10949,19 +10949,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>1.561943292617798</v>
+        <v>1.5619428</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>1.068457245826721</v>
+        <v>1.0684574</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4015152454376221</v>
+        <v>0.40151528</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>1.249777297208506</v>
+        <v>1.24977710643964</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>54.8783004283905</v>
+        <v>54.87828850746155</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -10981,13 +10981,13 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2461047917604446</v>
+        <v>0.24610479</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.396867424249649</v>
+        <v>0.39686742</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1417506337165833</v>
+        <v>0.14175063</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0.4960894997482255</v>
@@ -11011,19 +11011,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.3182443380355835</v>
+        <v>0.31824437</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.4421376585960388</v>
+        <v>0.4421377</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1541034579277039</v>
+        <v>0.15410346</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.5641314900230119</v>
+        <v>0.5641315164373516</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.50483512878418</v>
+        <v>17.50483363866806</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -11043,19 +11043,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7388790845870972</v>
+        <v>0.7372601600000001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7426341772079468</v>
+        <v>0.74179757</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2849714756011963</v>
+        <v>0.28467664</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8595807609451814</v>
+        <v>0.8586385519124754</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>33.81323516368866</v>
+        <v>33.76924991607666</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -11073,19 +11073,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.137217283248901</v>
+        <v>1.1375299</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.8971918821334839</v>
+        <v>0.89790666</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3289752900600433</v>
+        <v>0.32941005</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.066403902491406</v>
+        <v>1.066550444191977</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>42.66348779201508</v>
+        <v>42.73140132427216</v>
       </c>
     </row>
   </sheetData>
@@ -11379,23 +11379,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.575800990090811</v>
+        <v>0.2606364332974145</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4380556937993376</v>
+        <v>0.3216560991222006</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6300519555865471</v>
+        <v>0.209556936213606</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7588155178242014</v>
+        <v>0.5105256441134123</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>20.69951706871148</v>
+        <v>14.00947691908368</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -11409,23 +11409,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 2, 'min_samples_leaf': 1, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'sqrt', 'max_depth': 7, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.603777474946252</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.4116583405529448</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.592939721306898</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.7770311930329773</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.69036863751031</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -11503,53 +11503,53 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 3000, 'loss': 'squared_epsilon_insensitive', 'learning_rate': 'adaptive', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.1, 'alpha': 1}</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.087282168961652</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.62281783193559</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.051926909765158</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>2.66219499078517</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>180.5362308594174</v>
+      </c>
+      <c r="I11" s="9" t="inlineStr">
+        <is>
+          <t>Stochastic Gradient Descent Regressor</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K11" s="8" t="inlineStr">
+        <is>
           <t>{'tol': 1e-05, 'power_t': 0.75, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 1, 'fit_intercept': False, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
-      <c r="D11" s="5" t="n">
-        <v>6.584463596161395</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>2.490098854855686</v>
-      </c>
-      <c r="F11" s="5" t="n">
+      <c r="L11" s="8" t="n">
+        <v>7.225225366993457</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>2.660193364849657</v>
+      </c>
+      <c r="N11" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="n">
-        <v>2.566020965651176</v>
-      </c>
-      <c r="H11" s="5" t="n">
+      <c r="O11" s="8" t="n">
+        <v>2.687977932757904</v>
+      </c>
+      <c r="P11" s="8" t="n">
         <v>200</v>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>Stochastic Gradient Descent Regressor</t>
-        </is>
-      </c>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K11" s="8" t="inlineStr">
-        <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 2000, 'loss': 'huber', 'learning_rate': 'optimal', 'l1_ratio': 0.15, 'fit_intercept': False, 'eta0': 0.01, 'alpha': 0.01}</t>
-        </is>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>6.600071993827247</v>
-      </c>
-      <c r="M11" s="8" t="n">
-        <v>2.500735436565833</v>
-      </c>
-      <c r="N11" s="8" t="n">
-        <v>0.9995078266471222</v>
-      </c>
-      <c r="O11" s="8" t="n">
-        <v>2.56906052747444</v>
-      </c>
-      <c r="P11" s="8" t="n">
-        <v>191.6920275992747</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -12081,23 +12081,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5454570778054874</v>
+        <v>0.1543686935365685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3636526000295392</v>
+        <v>0.2609131248845544</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6098324653552993</v>
+        <v>0.1350516266042456</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7385506602836988</v>
+        <v>0.3928978156423989</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>17.83098115787155</v>
+        <v>11.93261777668054</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -12111,23 +12111,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.5772625751375634</v>
+        <v>0.0693562143468642</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3604456954666368</v>
+        <v>0.1626293438429242</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.6268188464909228</v>
+        <v>0.0766812915577853</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7597779775286747</v>
+        <v>0.2633556803011171</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>17.56198123139326</v>
+        <v>6.814102492576154</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -12229,19 +12229,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.524388313293457</v>
+        <v>0.52438855</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6248495578765869</v>
+        <v>0.62484974</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3031261563301086</v>
+        <v>0.30312622</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.7241466103583286</v>
+        <v>0.7241467749786891</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.56704390048981</v>
+        <v>27.56704688072205</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -12259,19 +12259,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3951944410800934</v>
+        <v>0.39519432</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5358374714851379</v>
+        <v>0.5358373</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2029404044151306</v>
+        <v>0.20294034</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6286449244844767</v>
+        <v>0.6286448296699845</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>21.7786580324173</v>
+        <v>21.7786505818367</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -12291,19 +12291,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.24471415579319</v>
+        <v>0.24471413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3754689693450928</v>
+        <v>0.37546897</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1337843388319016</v>
+        <v>0.13378432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4946859163077013</v>
+        <v>0.4946858861852313</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>14.53464478254318</v>
+        <v>14.53464180231094</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -12321,19 +12321,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2462625950574875</v>
+        <v>0.24626264</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3697379529476166</v>
+        <v>0.36973804</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1344771087169647</v>
+        <v>0.13447712</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4962485214662987</v>
+        <v>0.4962485665077241</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.34435844421387</v>
+        <v>14.34435993432999</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -12353,19 +12353,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.027739286422729</v>
+        <v>1.0249856</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9369604587554932</v>
+        <v>0.9354619</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.416257917881012</v>
+        <v>0.41498932</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.013774771052589</v>
+        <v>1.012415701100149</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>42.84306466579437</v>
+        <v>42.81712770462036</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -12383,19 +12383,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.264059901237488</v>
+        <v>1.2643809</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>1.01339328289032</v>
+        <v>1.0136118</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3697620034217834</v>
+        <v>0.36981001</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.124304185368661</v>
+        <v>1.124446944881904</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>47.59860336780548</v>
+        <v>47.60691821575165</v>
       </c>
     </row>
   </sheetData>
@@ -12689,23 +12689,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.01, 'max_leaf_nodes': 70, 'max_features': 'log2', 'max_depth': 16, 'criterion': 'friedman_mse', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4565236439698945</v>
+        <v>0.3437763968413672</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3214451307546496</v>
+        <v>0.3647612832729673</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2784186702703805</v>
+        <v>0.2720673726440656</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6756653342964211</v>
+        <v>0.586324480847736</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>15.14863252482053</v>
+        <v>16.53272817053076</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -12719,23 +12719,23 @@
       </c>
       <c r="K9" s="8" t="inlineStr">
         <is>
-          <t>{'splitter': 'random', 'min_samples_split': 2, 'min_samples_leaf': 2, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 10, 'max_features': 'auto', 'max_depth': 10, 'criterion': 'friedman_mse', 'ccp_alpha': 0.1}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.4270169515680203</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.3622185772336949</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2834112232173736</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.6534653407549786</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>17.02337332743731</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -12813,23 +12813,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.5, 'penalty': 'l1', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'adaptive', 'l1_ratio': 0.15, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.001}</t>
+          <t>{'tol': 0.001, 'power_t': 0.25, 'penalty': 'none', 'max_iter': 1000, 'loss': 'huber', 'learning_rate': 'adaptive', 'l1_ratio': 0.7, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3828973449548602</v>
+        <v>123987.1317046383</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2767116045468256</v>
+        <v>288.7104735356327</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2581886651809876</v>
+        <v>131.4277404094488</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6187869948171666</v>
+        <v>352.1180650075174</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.18691634597564</v>
+        <v>195.7516991888299</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -12847,19 +12847,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>10.57364582494973</v>
+        <v>6.779542418132455</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>2.862974126151027</v>
+        <v>2.541890937936058</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>1.28433899826324</v>
+        <v>1.020156167479906</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>3.251714290178295</v>
+        <v>2.603755445146962</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>150.3115720313478</v>
+        <v>168.838165035496</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -13395,19 +13395,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4997329523910997</v>
+        <v>0.3691860998247625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3381838440976835</v>
+        <v>0.396885571747727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.3050248354469393</v>
+        <v>0.2379360394734173</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7069179247912021</v>
+        <v>0.6076068628848448</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>16.26494608117899</v>
+        <v>18.83501500958756</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -13421,23 +13421,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.4928849506895238</v>
+        <v>0.098933872098372</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.3376698726726424</v>
+        <v>0.2015725422680109</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3031278112053828</v>
+        <v>0.1264617271206677</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.7020576548186935</v>
+        <v>0.3145375527633736</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>16.27450736960808</v>
+        <v>9.535399032810018</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -13539,16 +13539,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>2.436997175216675</v>
+        <v>2.436997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.16934072971344</v>
+        <v>1.1693407</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5338926911354065</v>
+        <v>0.5338927</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1.561088458485513</v>
+        <v>1.56108838212258</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>69.34695839881897</v>
@@ -13569,19 +13569,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.4640404582023621</v>
+        <v>0.46404043</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5509009957313538</v>
+        <v>0.550901</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2505674660205841</v>
+        <v>0.25056747</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.681205151332814</v>
+        <v>0.6812051294581095</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>23.56741726398468</v>
+        <v>23.5674187541008</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -13601,19 +13601,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.304390162229538</v>
+        <v>0.30439025</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4365805685520172</v>
+        <v>0.43658075</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1622392237186432</v>
+        <v>0.16223927</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5517156534207979</v>
+        <v>0.551715734447102</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.00364553928375</v>
+        <v>18.00365000963211</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -13631,16 +13631,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.19928078353405</v>
+        <v>0.19928083</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3468624353408813</v>
+        <v>0.3468625</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1286481618881226</v>
+        <v>0.12864818</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.4464087628329556</v>
+        <v>0.446408812903076</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>14.142045378685</v>
@@ -13663,19 +13663,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>160564.0625</v>
+        <v>160573.64</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>306.9077758789062</v>
+        <v>306.95673</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>132.9034729003906</v>
+        <v>132.92409</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>400.7044577990118</v>
+        <v>400.7164092285216</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>197.4342823028564</v>
+        <v>197.4336862564087</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -13693,19 +13693,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>1.059840679168701</v>
+        <v>1.059782</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.762743353843689</v>
+        <v>0.7627218</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4311484098434448</v>
+        <v>0.43113476</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>1.029485638155628</v>
+        <v>1.029457152191504</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>29.93937134742737</v>
+        <v>29.93877530097961</v>
       </c>
     </row>
   </sheetData>
@@ -13967,19 +13967,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -14051,23 +14051,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03888848602406704</v>
+        <v>0.0435345588954514</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1453186898624627</v>
+        <v>0.1824226430237191</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1829783001449187</v>
+        <v>0.281931232083872</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1972016379852537</v>
+        <v>0.2086493683082971</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.15238409933173</v>
+        <v>26.08693723125144</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -14485,23 +14485,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 200, 'min_child_weight': 1, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.3, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02700234042053324</v>
+        <v>0.009531629584837</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1303637199314213</v>
+        <v>0.0791254296217317</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1705149191926797</v>
+        <v>0.1100551649539859</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1643238887701153</v>
+        <v>0.0976300649638065</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.67723432625509</v>
+        <v>11.49305302460269</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -14615,16 +14615,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.019617959856987</v>
+        <v>0.019617964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1255833208560944</v>
+        <v>0.12558332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2006222456693649</v>
+        <v>0.20062225</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1400641276593939</v>
+        <v>0.14006414095791</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>17.728491127491</v>
@@ -14659,19 +14659,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0322890430688858</v>
+        <v>0.032289047</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.13838030397892</v>
+        <v>0.13838029</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1895083039999008</v>
+        <v>0.18950829</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.179691521972757</v>
+        <v>0.1796915323385498</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.12543177604675</v>
+        <v>19.12542879581452</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -14703,19 +14703,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1251883506774902</v>
+        <v>0.12574303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3194762468338013</v>
+        <v>0.31996873</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5250785946846008</v>
+        <v>0.5259209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3538196584101712</v>
+        <v>0.3546026388815656</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>39.33560848236084</v>
+        <v>39.37188684940338</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -15025,19 +15025,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -15055,19 +15055,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -15149,19 +15149,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03761583540505219</v>
+        <v>0.0289584322574029</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.144287205281267</v>
+        <v>0.1186662119269126</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2937016910191205</v>
+        <v>0.2814628844888647</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1939480224314035</v>
+        <v>0.1701717727985546</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.56078596066331</v>
+        <v>21.10114012477403</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -15179,19 +15179,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.0375569925801675</v>
+        <v>0.0290337602775785</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1441331411762939</v>
+        <v>0.1187904434755025</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2934467865006318</v>
+        <v>0.2813725164913603</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1937962656507279</v>
+        <v>0.1703929584154772</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>23.54026873223562</v>
+        <v>21.11505191802583</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -15723,23 +15723,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03949482705945737</v>
+        <v>0.0286541567301398</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1384310754752542</v>
+        <v>0.1312153091337565</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2136236453377862</v>
+        <v>0.2926877396007484</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1987330547731237</v>
+        <v>0.1692753872544376</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>22.34454461069003</v>
+        <v>23.84770869277776</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -15753,23 +15753,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04102615452960526</v>
+        <v>0.0300497640955955</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1522040238021732</v>
+        <v>0.1340834630812215</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2522822565427116</v>
+        <v>0.3119215815146666</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2025491410241111</v>
+        <v>0.1733486778016941</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>24.95887497445856</v>
+        <v>24.28336416457237</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -15871,19 +15871,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03525862470269203</v>
+        <v>0.035258617</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1520319432020187</v>
+        <v>0.15203191</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4053850769996643</v>
+        <v>0.405385</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1877728007531763</v>
+        <v>0.1877727809138253</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>27.22516357898712</v>
+        <v>27.22516059875488</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -15901,13 +15901,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.08217255771160126</v>
+        <v>0.08217256000000001</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.220188707113266</v>
+        <v>0.2201887</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.7384802103042603</v>
+        <v>0.73848027</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.2866575617554877</v>
@@ -15933,19 +15933,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02037633396685123</v>
+        <v>0.020377098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1003639400005341</v>
+        <v>0.10036252</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1406690925359726</v>
+        <v>0.14066225</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1427456968418006</v>
+        <v>0.1427483717993393</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>15.75178802013397</v>
+        <v>15.75059741735458</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -15963,19 +15963,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.02414610423147678</v>
+        <v>0.024146097</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1201591566205025</v>
+        <v>0.12015913</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1682185530662537</v>
+        <v>0.16821851</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1553901677438981</v>
+        <v>0.1553901437701123</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>17.9902046918869</v>
+        <v>17.99020022153854</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -15995,19 +15995,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06069939583539963</v>
+        <v>0.059918925</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2124471664428711</v>
+        <v>0.21091804</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5578643679618835</v>
+        <v>0.55025184</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.246372473777814</v>
+        <v>0.2447834250232847</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>38.93260657787323</v>
+        <v>38.63911628723145</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -16025,19 +16025,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06017393246293068</v>
+        <v>0.060186356</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2081704884767532</v>
+        <v>0.20813419</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4928180277347565</v>
+        <v>0.49267283</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.245303755501074</v>
+        <v>0.245329077579638</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>36.82015240192413</v>
+        <v>36.81078851222992</v>
       </c>
     </row>
   </sheetData>
@@ -16299,19 +16299,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -16383,23 +16383,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02661026724615795</v>
+        <v>0.0903687694440556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1190039161975384</v>
+        <v>0.2378228854791217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1773771494273238</v>
+        <v>0.4935256060547044</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1631265375288704</v>
+        <v>0.3006139874391337</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.90288893008336</v>
+        <v>33.66329560447424</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -16821,19 +16821,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02974875764859103</v>
+        <v>0.0265708141595261</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1384510783371392</v>
+        <v>0.1248634105068555</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2142419036166239</v>
+        <v>0.265466359895145</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1724782816721892</v>
+        <v>0.1630055648115308</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>21.11394576677235</v>
+        <v>20.87816699622403</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -16947,19 +16947,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03692157939076424</v>
+        <v>0.03692158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1372821480035782</v>
+        <v>0.13728215</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3786123991012573</v>
+        <v>0.3786124</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.19214988782397</v>
+        <v>0.1921498878239699</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>23.21950942277908</v>
+        <v>23.21951240301132</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -16991,19 +16991,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0889599621295929</v>
+        <v>0.088960014</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2175937741994858</v>
+        <v>0.21759385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3422667682170868</v>
+        <v>0.3422669</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2982615666316948</v>
+        <v>0.2982616540617601</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>28.29437255859375</v>
+        <v>28.29438745975494</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -17035,19 +17035,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1383398771286011</v>
+        <v>0.13799846</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3202667236328125</v>
+        <v>0.31966612</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6763875484466553</v>
+        <v>0.6755988000000001</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3719406903373185</v>
+        <v>0.3714814419635625</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>40.82595705986023</v>
+        <v>40.76924026012421</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -17321,19 +17321,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -17405,23 +17405,23 @@
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>{'tol': 0.0001, 'power_t': 0.25, 'penalty': 'elasticnet', 'max_iter': 3000, 'loss': 'squared_loss', 'learning_rate': 'optimal', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 1}</t>
+          <t>{'tol': 1e-05, 'power_t': 0.5, 'penalty': 'l2', 'max_iter': 1000, 'loss': 'squared_loss', 'learning_rate': 'constant', 'l1_ratio': 0, 'fit_intercept': True, 'eta0': 0.001, 'alpha': 0.01}</t>
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02582116758962548</v>
+        <v>0.0507806655864031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.113521963112704</v>
+        <v>0.166549680070635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2352703397573211</v>
+        <v>0.4362893359370128</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1606896623607924</v>
+        <v>0.2253456580154212</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.78242001567169</v>
+        <v>27.83778143693361</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -17839,23 +17839,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01308901974479583</v>
+        <v>0.0322455227725686</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09334056691470478</v>
+        <v>0.1377503801415054</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1639823898839595</v>
+        <v>0.3762627871171376</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.114407253899374</v>
+        <v>0.1795703838960328</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>15.41672386201972</v>
+        <v>24.78220209018304</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -17969,19 +17969,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08487986773252487</v>
+        <v>0.08487990500000001</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2258933186531067</v>
+        <v>0.22589335</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5723696947097778</v>
+        <v>0.5723698</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2913414967568556</v>
+        <v>0.2913415606902452</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>48.3049064874649</v>
+        <v>48.30491840839386</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -18013,19 +18013,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04956507310271263</v>
+        <v>0.049578503</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1727168411016464</v>
+        <v>0.17274275</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2730192840099335</v>
+        <v>0.27307573</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2226321475050551</v>
+        <v>0.2226623065860914</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.71170371770859</v>
+        <v>23.71499091386795</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -18057,19 +18057,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.71987509727478</v>
+        <v>1.3296793</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.116499781608582</v>
+        <v>0.9809438</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.699010133743286</v>
+        <v>2.4188676</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.31144008527831</v>
+        <v>1.153117188631391</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>87.48254179954529</v>
+        <v>82.01910257339478</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -18343,19 +18343,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -18431,19 +18431,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1327816872326668</v>
+        <v>0.1087991230144676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3069150989526456</v>
+        <v>0.2444420553562672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1059103592784941</v>
+        <v>0.0843042128347978</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3643922162075733</v>
+        <v>0.32984712067027</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.41262067428245</v>
+        <v>9.09632893579824</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -18861,23 +18861,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1476941191477341</v>
+        <v>0.09616471020147351</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3334635053608492</v>
+        <v>0.2332842095656497</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1197329572542888</v>
+        <v>0.08783653225114681</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3843099259032144</v>
+        <v>0.3101043537286659</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>12.93941762475463</v>
+        <v>9.58652749524747</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -18991,19 +18991,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02173243276774883</v>
+        <v>0.021732444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1243852153420448</v>
+        <v>0.12438521</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.04712424799799919</v>
+        <v>0.047124248</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.1474192415112384</v>
+        <v>0.1474192794162952</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>4.656556993722916</v>
+        <v>4.656556248664856</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -19035,19 +19035,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2600979208946228</v>
+        <v>0.26009795</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4418792128562927</v>
+        <v>0.44187927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1596527099609375</v>
+        <v>0.15965274</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.5099979616573216</v>
+        <v>0.5099979908754005</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>16.7695626616478</v>
+        <v>16.76956415176392</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -19079,19 +19079,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05982189252972603</v>
+        <v>0.05762289</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1831513643264771</v>
+        <v>0.18003674</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06484212726354599</v>
+        <v>0.06381768</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2445851437224388</v>
+        <v>0.2400476846783716</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.811972707509995</v>
+        <v>6.689891964197159</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -19365,19 +19365,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -19453,19 +19453,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1601392598655975</v>
+        <v>0.1548375310817283</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3358914166718475</v>
+        <v>0.297769299878004</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1217383338621101</v>
+        <v>0.1232943927269828</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4001740369709127</v>
+        <v>0.3934940038701077</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.83418540273841</v>
+        <v>11.95164015969969</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -19887,19 +19887,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5137473433465823</v>
+        <v>0.023173082338207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6012200298724453</v>
+        <v>0.1139252598458418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2156268426484736</v>
+        <v>0.0417685952030525</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.716761706110603</v>
+        <v>0.1522270749183831</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>25.35125120456095</v>
+        <v>4.252562905078279</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -20013,19 +20013,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4969819486141205</v>
+        <v>0.49698195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5956979393959045</v>
+        <v>0.5956979999999999</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2456410378217697</v>
+        <v>0.24564104</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.7049694664410087</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>21.52658104896545</v>
+        <v>21.52658253908157</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -20057,19 +20057,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.5073055624961853</v>
+        <v>0.50730526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5208820104598999</v>
+        <v>0.5208818</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1851298362016678</v>
+        <v>0.18512978</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7122538609907182</v>
+        <v>0.7122536517793092</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.50637412071228</v>
+        <v>22.50636368989944</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -20101,19 +20101,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3518803715705872</v>
+        <v>0.3516643</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4436772763729095</v>
+        <v>0.44345722</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2067330181598663</v>
+        <v>0.20664419</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5931950535621375</v>
+        <v>0.5930129043564536</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.43133908510208</v>
+        <v>16.42432063817978</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -20387,19 +20387,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -20475,19 +20475,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2218470503664739</v>
+        <v>0.2196014216142258</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3740998900861244</v>
+        <v>0.3312000192703012</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1615410517556826</v>
+        <v>0.1850022618682991</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.471006422850553</v>
+        <v>0.4686164973773606</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.11274060089849</v>
+        <v>14.517677852709</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -20905,23 +20905,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 1.0, 'n_estimators': 300, 'min_child_weight': 1, 'max_depth': 6, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1268550832599993</v>
+        <v>0.1134603306012074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2607206399596998</v>
+        <v>0.1917136966202429</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.114030160874559</v>
+        <v>0.1289894534564754</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3561672124999708</v>
+        <v>0.3368387308508441</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.76861510388997</v>
+        <v>9.181840482317607</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -21035,16 +21035,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.6681241989135742</v>
+        <v>0.66812414</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4999067783355713</v>
+        <v>0.49990675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3073211014270782</v>
+        <v>0.30732107</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.8173886461858729</v>
+        <v>0.8173886097254656</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>19.07712519168854</v>
@@ -21079,19 +21079,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.149079903960228</v>
+        <v>0.14906694</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2786293029785156</v>
+        <v>0.27861664</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1121857240796089</v>
+        <v>0.112181135</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3861086685898518</v>
+        <v>0.3860918801917353</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.30241474509239</v>
+        <v>10.30190512537956</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -21123,19 +21123,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5401361584663391</v>
+        <v>0.54013866</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.512518584728241</v>
+        <v>0.5125182</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3012736141681671</v>
+        <v>0.30127275</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7349395610976042</v>
+        <v>0.7349412642255295</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.88889425992966</v>
+        <v>19.88886594772339</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -21445,19 +21445,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -21475,19 +21475,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -21569,19 +21569,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03276160607942207</v>
+        <v>0.0221492822553729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1386943970567567</v>
+        <v>0.1039403827121846</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.209562535576002</v>
+        <v>0.192890956884337</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1810016742448038</v>
+        <v>0.1488263493316052</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>21.07593419249233</v>
+        <v>17.00921790125678</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -21599,19 +21599,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03279917212787829</v>
+        <v>0.022181791845872</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1387850170384421</v>
+        <v>0.103976223814162</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2097839925653552</v>
+        <v>0.1932550668195253</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1811054171687813</v>
+        <v>0.1489355291590022</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>21.09133306001202</v>
+        <v>17.0269564453035</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02774189867184202</v>
+        <v>0.0226239859282794</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1179710030776995</v>
+        <v>0.1139479068904287</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1592210354720269</v>
+        <v>0.2529604435545484</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1665589945690175</v>
+        <v>0.1504127186386824</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.27949283434923</v>
+        <v>19.30394541971465</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -22173,23 +22173,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02774189867184202</v>
+        <v>0.0226152370455506</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1179710030776995</v>
+        <v>0.1137376462467502</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.1592210354720269</v>
+        <v>0.2536595726324693</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1665589945690175</v>
+        <v>0.1503836329044841</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>18.27949283434923</v>
+        <v>19.27756715869641</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -22291,13 +22291,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.03067262656986713</v>
+        <v>0.030672627</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1386425942182541</v>
+        <v>0.1386426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.336737185716629</v>
+        <v>0.33673716</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1751360230502769</v>
@@ -22321,19 +22321,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.01620709896087646</v>
+        <v>0.016207097</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.09497006237506866</v>
+        <v>0.09497006</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1993698626756668</v>
+        <v>0.19936985</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1273071049112204</v>
+        <v>0.1273070975956616</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>16.39762818813324</v>
+        <v>16.39762669801712</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -22353,19 +22353,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01496840547770262</v>
+        <v>0.014969323</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1001028120517731</v>
+        <v>0.10010349</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1357634961605072</v>
+        <v>0.13575913</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1223454350505266</v>
+        <v>0.122349184020322</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>13.50627094507217</v>
+        <v>13.50592523813248</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -22383,19 +22383,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.01732048206031322</v>
+        <v>0.017320482</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1045228913426399</v>
+        <v>0.10452289</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1413459032773972</v>
+        <v>0.14134589</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.1316073024581585</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.59894776344299</v>
+        <v>14.59894627332687</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -22415,19 +22415,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03336545452475548</v>
+        <v>0.034409262</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1574093103408813</v>
+        <v>0.16104536</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3165166079998016</v>
+        <v>0.31582487</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1826621321586811</v>
+        <v>0.1854973375548366</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>28.10021638870239</v>
+        <v>28.94789576530457</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -22445,19 +22445,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.06361217051744461</v>
+        <v>0.06304419999999999</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2173588275909424</v>
+        <v>0.21562134</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.3621187210083008</v>
+        <v>0.35982743</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2522145327245133</v>
+        <v>0.2510860367630584</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>37.63554096221924</v>
+        <v>37.28524744510651</v>
       </c>
     </row>
   </sheetData>
@@ -22755,19 +22755,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -22785,19 +22785,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.05505449741040632</v>
+        <v>0.053417959730321</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1934678660365473</v>
+        <v>0.1914043118252289</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.06811094267651545</v>
+        <v>0.0695954848106438</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2346369480930195</v>
+        <v>0.2311232565760552</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>7.006314959143742</v>
+        <v>7.044330922606823</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -22879,19 +22879,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1349141427263523</v>
+        <v>0.1336900193349265</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3080651952724868</v>
+        <v>0.2936796450343318</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1062190252014451</v>
+        <v>0.1020336359402105</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3673066058844467</v>
+        <v>0.3656364578853243</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>11.45670496717436</v>
+        <v>11.03823372380093</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -22909,19 +22909,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1352097579729732</v>
+        <v>0.1338195995923679</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3085247078463091</v>
+        <v>0.293798654364478</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1063826626360497</v>
+        <v>0.1020726200318178</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3677087950715528</v>
+        <v>0.3658136131862343</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>11.47516630745956</v>
+        <v>11.04303252947557</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -23453,23 +23453,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1366968007371658</v>
+        <v>0.0754427558492225</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2318914564387668</v>
+        <v>0.225700051585632</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07910432471411942</v>
+        <v>0.08360430017778089</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.369725304431771</v>
+        <v>0.274668447130759</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>8.794076321556769</v>
+        <v>8.341703298848257</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -23483,23 +23483,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.7, 'reg_lambda': 0.1, 'reg_alpha': 0.1, 'n_estimators': 100, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.3, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.8, 'reg_lambda': 0.5, 'reg_alpha': 1.0, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 8, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.02334571127836997</v>
+        <v>0.1284440914129913</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1288045414736246</v>
+        <v>0.2626301926664811</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.04543740649835742</v>
+        <v>0.0934208649572518</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.1527930341290792</v>
+        <v>0.3583909756299554</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>4.614896694156101</v>
+        <v>9.806125928962052</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -23601,19 +23601,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2954824864864349</v>
+        <v>0.29548243</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.514495313167572</v>
+        <v>0.51449525</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1942595690488815</v>
+        <v>0.19425952</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.543583007908116</v>
+        <v>0.5435829530824069</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>17.47887432575226</v>
+        <v>17.47887283563614</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -23631,19 +23631,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.3794858753681183</v>
+        <v>0.37948585</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5868985652923584</v>
+        <v>0.58689857</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2179101705551147</v>
+        <v>0.21791014</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.6160242490098246</v>
+        <v>0.6160242248205795</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.42995637655258</v>
+        <v>19.42995637655259</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -23663,19 +23663,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08396857976913452</v>
+        <v>0.08397212599999999</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2679095268249512</v>
+        <v>0.26790237</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09499566256999969</v>
+        <v>0.09499278</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2897733248060189</v>
+        <v>0.2897794441389842</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.538979828357697</v>
+        <v>9.538938105106354</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -23693,19 +23693,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.1360704004764557</v>
+        <v>0.1360704</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.2828652858734131</v>
+        <v>0.28286523</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.09801730513572693</v>
+        <v>0.098017275</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.368877215989895</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>10.51595211029053</v>
+        <v>10.51595062017441</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -23725,19 +23725,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1160463020205498</v>
+        <v>0.11115334</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2730070948600769</v>
+        <v>0.26510042</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1057877317070961</v>
+        <v>0.10282292</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3406556942435423</v>
+        <v>0.333396673393387</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.743842482566833</v>
+        <v>9.480218589305878</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -23755,19 +23755,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.07858572900295258</v>
+        <v>0.07858411</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.2240566909313202</v>
+        <v>0.22405444</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.08625707030296326</v>
+        <v>0.08625618</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2803314627417918</v>
+        <v>0.2803285790406733</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>8.100853115320206</v>
+        <v>8.100777119398117</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -24062,23 +24062,23 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 4, 'min_impurity_decrease': 0.1, 'max_leaf_nodes': 90, 'max_features': None, 'max_depth': 26, 'criterion': 'mae', 'ccp_alpha': 0.0}</t>
+          <t>{'splitter': 'best', 'min_samples_split': 5, 'min_samples_leaf': 2, 'min_impurity_decrease': 1.0, 'max_leaf_nodes': 50, 'max_features': 'auto', 'max_depth': 32, 'criterion': 'mae', 'ccp_alpha': 1.0}</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -24096,19 +24096,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.1802082435197614</v>
+        <v>0.2619989916610928</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2915329542000943</v>
+        <v>0.3258770099384064</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1408903489756715</v>
+        <v>0.2049673875946611</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.4245094151132121</v>
+        <v>0.5118583707053083</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>11.84296891915625</v>
+        <v>14.16081037644224</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -24190,19 +24190,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2200047216950324</v>
+        <v>0.2732878224375256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3745178591485536</v>
+        <v>0.4036430196641008</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1617106832036531</v>
+        <v>0.2109637948075339</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4690466092991531</v>
+        <v>0.522769377868985</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>15.12624704382832</v>
+        <v>17.37493403813773</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -24220,19 +24220,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.2192108084431282</v>
+        <v>0.2733384701603535</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3737149996280753</v>
+        <v>0.4036474490032701</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1613450494797529</v>
+        <v>0.2110209085256112</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.4681995391316914</v>
+        <v>0.5228178173707869</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>15.09449289593078</v>
+        <v>17.37465485706846</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -24764,23 +24764,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0, 'reg_alpha': 0.1, 'n_estimators': 400, 'min_child_weight': 5, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.2, 'colsample_bytree': 0.9}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2160373522009475</v>
+        <v>0.1847361307112623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3671907442235911</v>
+        <v>0.2495222404580729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1618212381578926</v>
+        <v>0.1539946211729958</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4647981843778518</v>
+        <v>0.4298094120784959</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>14.86288474066159</v>
+        <v>11.44346381404343</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -24794,23 +24794,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 0.5, 'reg_alpha': 0.5, 'n_estimators': 1000, 'min_child_weight': 1, 'max_depth': 8, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.7}</t>
+          <t>{'subsample': 0.7, 'reg_lambda': 1.0, 'reg_alpha': 0.1, 'n_estimators': 200, 'min_child_weight': 5, 'max_depth': 6, 'learning_rate': 0.2, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.05992295846009434</v>
+        <v>0.1866650775934512</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1910265001257446</v>
+        <v>0.3030930006587685</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.0850309281834026</v>
+        <v>0.1675299624654865</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2447916633794835</v>
+        <v>0.4320475408950399</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.021044479997697</v>
+        <v>13.40006985299266</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -24912,19 +24912,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.4791884422302246</v>
+        <v>0.47918823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.4866214990615845</v>
+        <v>0.4866213</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2929061651229858</v>
+        <v>0.29290608</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.6922343838832513</v>
+        <v>0.6922342331999826</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>19.28351372480392</v>
+        <v>19.28350776433945</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -24942,13 +24942,13 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.5695294141769409</v>
+        <v>0.5695294</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.5510488748550415</v>
+        <v>0.5510489</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.3229007720947266</v>
+        <v>0.32290077</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.7546717261014493</v>
@@ -24974,19 +24974,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1402090638875961</v>
+        <v>0.14020918</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2863551378250122</v>
+        <v>0.2863553</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1010080128908157</v>
+        <v>0.101008065</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3744450078283807</v>
+        <v>0.3744451670096513</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>10.84856763482094</v>
+        <v>10.84857285022736</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -25004,13 +25004,13 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.2105102092027664</v>
+        <v>0.21051021</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.3815573751926422</v>
+        <v>0.38155743</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1344840526580811</v>
+        <v>0.13448405</v>
       </c>
       <c r="O23" s="8" t="n">
         <v>0.4588139156594604</v>
@@ -25036,19 +25036,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2949746251106262</v>
+        <v>0.29497465</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3772733211517334</v>
+        <v>0.3772732</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2247645556926727</v>
+        <v>0.2247645</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5431156645785741</v>
+        <v>0.543115692015015</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.11927300691605</v>
+        <v>16.11926555633545</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -25066,19 +25066,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.5230064988136292</v>
+        <v>0.52300614</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.4806917905807495</v>
+        <v>0.48069003</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2994717657566071</v>
+        <v>0.29947126</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.7231918824306791</v>
+        <v>0.7231916351740806</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>18.96611303091049</v>
+        <v>18.96606236696244</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -25377,19 +25377,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -25407,19 +25407,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.09105884694568628</v>
+        <v>0.1486068240180037</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.2365740226678129</v>
+        <v>0.2669368274198249</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.09208973487925085</v>
+        <v>0.1240804783694362</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.3017595846790724</v>
+        <v>0.3854955564179744</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>8.937532340375366</v>
+        <v>10.74049987344739</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1">
@@ -25501,19 +25501,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1547082517482206</v>
+        <v>0.1980001467185556</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3312114155012318</v>
+        <v>0.3587003165894394</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1205223023542923</v>
+        <v>0.1462481194223016</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3933296985332033</v>
+        <v>0.4449720740884259</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>12.63624153432465</v>
+        <v>14.38922228727889</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -25531,19 +25531,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.1541164284317134</v>
+        <v>0.1979497957207659</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.3304209979708719</v>
+        <v>0.3587325018389106</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1202040167927454</v>
+        <v>0.146248336163304</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.3925766529376313</v>
+        <v>0.4449154927857265</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>12.60435484142015</v>
+        <v>14.39059102062348</v>
       </c>
     </row>
     <row r="12" ht="30.75" customHeight="1">
@@ -26075,23 +26075,23 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1273639915365012</v>
+        <v>0.06305380425350759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2820927580211137</v>
+        <v>0.1934384196764607</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1037172565148792</v>
+        <v>0.08309940986710811</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3568809206675263</v>
+        <v>0.2511051657244583</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>10.74144994979506</v>
+        <v>7.860705676499855</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -26105,23 +26105,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.1092839826800974</v>
+        <v>0.06571418067242631</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.2061224747067276</v>
+        <v>0.1926737306517038</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.07623204349785448</v>
+        <v>0.08330944403669351</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.3305812799904093</v>
+        <v>0.2563477729031917</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>8.402351827435641</v>
+        <v>7.844530453505246</v>
       </c>
     </row>
     <row r="21" ht="128.25" customHeight="1">
@@ -26223,19 +26223,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2531459331512451</v>
+        <v>0.253146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3778948485851288</v>
+        <v>0.3778949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1763069927692413</v>
+        <v>0.17630702</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.5031360980403266</v>
+        <v>0.5031361572734461</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>14.40933644771576</v>
+        <v>14.409339427948</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -26253,19 +26253,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.2609498798847198</v>
+        <v>0.26095003</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.3718163669109344</v>
+        <v>0.37181658</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.1760406047105789</v>
+        <v>0.1760407</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.5108325360474995</v>
+        <v>0.5108326818992025</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>14.20331448316574</v>
+        <v>14.20332193374634</v>
       </c>
     </row>
     <row r="23" ht="57" customHeight="1">
@@ -26285,19 +26285,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04142024740576744</v>
+        <v>0.04142705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1419090926647186</v>
+        <v>0.14192055</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0488029308617115</v>
+        <v>0.04880648</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2035196486970421</v>
+        <v>0.2035363598619481</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.096478015184402</v>
+        <v>5.096886307001114</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -26315,19 +26315,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.05905639752745628</v>
+        <v>0.059068944</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1872292757034302</v>
+        <v>0.18725269</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.06531278043985367</v>
+        <v>0.06532114</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.2430152207732188</v>
+        <v>0.2430410342003619</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>6.776090711355209</v>
+        <v>6.776946783065796</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -26347,19 +26347,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3441441059112549</v>
+        <v>0.34441116</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5358258485794067</v>
+        <v>0.53609294</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2128392159938812</v>
+        <v>0.21288763</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5866379683512267</v>
+        <v>0.5868655421152029</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>21.97556495666504</v>
+        <v>21.98891639709473</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -26377,19 +26377,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.4122494459152222</v>
+        <v>0.41263136</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.5949893593788147</v>
+        <v>0.5953143</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.2288111448287964</v>
+        <v>0.22892399</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.642066543214348</v>
+        <v>0.6423638864978483</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>24.6648445725441</v>
+        <v>24.67977851629257</v>
       </c>
     </row>
     <row r="25" ht="30.75" customHeight="1"/>
@@ -26690,19 +26690,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -26720,19 +26720,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.02882234164840508</v>
+        <v>0.0253962925241689</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1346358438386558</v>
+        <v>0.1279714848680593</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.1782026335640415</v>
+        <v>0.1839970281017102</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1697714394366882</v>
+        <v>0.1593621426944584</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>19.23936576403386</v>
+        <v>19.04262425771602</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -26814,19 +26814,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03305308846285483</v>
+        <v>0.0299477143092087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1404249348871292</v>
+        <v>0.1363241289439208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1807210410393746</v>
+        <v>0.1881052153871332</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1818050837101505</v>
+        <v>0.1730540791464009</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>20.14459964807436</v>
+        <v>20.38978564749195</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -26844,19 +26844,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03305653648278354</v>
+        <v>0.0299402921045782</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1404242948339218</v>
+        <v>0.136293027487749</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.1807094449721701</v>
+        <v>0.188061809556106</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1818145662007958</v>
+        <v>0.1730326330626053</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>20.14438756250593</v>
+        <v>20.38459487677589</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -27392,19 +27392,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05027167756281909</v>
+        <v>0.0299124540701156</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1890445082057441</v>
+        <v>0.1216677876467297</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2574086094636781</v>
+        <v>0.1636139180060745</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2242134642763879</v>
+        <v>0.1729521727822915</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>30.96596441416187</v>
+        <v>17.89768583743606</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -27422,19 +27422,19 @@
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.03161272506548164</v>
+        <v>0.0289418934542608</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1433138771344301</v>
+        <v>0.133527689686974</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.188392573581647</v>
+        <v>0.1848724339924424</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.177799676786775</v>
+        <v>0.1701231714207706</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>20.64566583433371</v>
+        <v>19.92918639568104</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.0233621709048748</v>
+        <v>0.02336217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1281312704086304</v>
+        <v>0.12813127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2121626138687134</v>
+        <v>0.21216261</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1528468871285078</v>
@@ -27566,19 +27566,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.0234503336250782</v>
+        <v>0.023450337</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1305386275053024</v>
+        <v>0.13053861</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.2133476585149765</v>
+        <v>0.21334766</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.1531350176317559</v>
+        <v>0.1531350297951729</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>19.31612342596054</v>
+        <v>19.31612491607666</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -27598,16 +27598,16 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02565914392471313</v>
+        <v>0.025659144</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1353529393672943</v>
+        <v>0.13535294</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1919767260551453</v>
+        <v>0.19197673</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1601847181372591</v>
+        <v>0.160184718137259</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>18.80204677581787</v>
@@ -27628,19 +27628,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.016215480864048</v>
+        <v>0.016215475</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1056545004248619</v>
+        <v>0.10565449</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.1441490948200226</v>
+        <v>0.1441491</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1273400206692617</v>
+        <v>0.1273399987282572</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>14.65780436992645</v>
+        <v>14.65780287981033</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -27660,19 +27660,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0225936621427536</v>
+        <v>0.0225898</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1271211206912994</v>
+        <v>0.12712172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2005125284194946</v>
+        <v>0.20054951</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1503118829060218</v>
+        <v>0.150299038185077</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.83646547794342</v>
+        <v>18.83654296398163</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -27690,19 +27690,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.01842335797846317</v>
+        <v>0.018594714</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1163355931639671</v>
+        <v>0.116718866</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.179870530962944</v>
+        <v>0.1810751</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.1357326710061479</v>
+        <v>0.1363624357424427</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>17.34696477651596</v>
+        <v>17.40197390317917</v>
       </c>
     </row>
   </sheetData>
@@ -28004,19 +28004,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -28034,19 +28034,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.0466440454529416</v>
+        <v>0.0503255308344434</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1721431343595131</v>
+        <v>0.1764471128603534</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.3804385996473661</v>
+        <v>0.5113545970132304</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.2159723256645203</v>
+        <v>0.2243335258815397</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>27.92300018704432</v>
+        <v>30.36677767801167</v>
       </c>
     </row>
     <row r="10">
@@ -28128,19 +28128,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04923392475364935</v>
+        <v>0.0530405938517063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1760133648423235</v>
+        <v>0.1834650270056574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3673839646209872</v>
+        <v>0.4924885862475662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2218871892508654</v>
+        <v>0.2303054360012076</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>28.62579820002837</v>
+        <v>31.68599157885384</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -28158,19 +28158,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.04921990192127042</v>
+        <v>0.0530261688447205</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1759957317742719</v>
+        <v>0.183437680364368</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.3673842120922761</v>
+        <v>0.4924463704355396</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.2218555879874799</v>
+        <v>0.2302741167494091</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>28.62294200339532</v>
+        <v>31.68161998537061</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -28702,53 +28702,53 @@
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
+          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.06910516324378629</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>0.2003533822736515</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.4827295881461388</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>0.2628786093309729</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>34.79537425069954</v>
+      </c>
+      <c r="I20" s="9" t="inlineStr">
+        <is>
+          <t>XGBoost Regressor</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="K20" s="8" t="inlineStr">
+        <is>
           <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
         </is>
       </c>
-      <c r="D20" s="5" t="n">
-        <v>0.05016421035023868</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>0.1779620624788568</v>
-      </c>
-      <c r="F20" s="5" t="n">
-        <v>0.3714125642024546</v>
-      </c>
-      <c r="G20" s="5" t="n">
-        <v>0.2239736822714639</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>28.9286835700689</v>
-      </c>
-      <c r="I20" s="9" t="inlineStr">
-        <is>
-          <t>XGBoost Regressor</t>
-        </is>
-      </c>
-      <c r="J20" s="8" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="K20" s="8" t="inlineStr">
-        <is>
-          <t>{'subsample': 1.0, 'reg_lambda': 0, 'reg_alpha': 1.0, 'n_estimators': 700, 'min_child_weight': 1, 'max_depth': 9, 'learning_rate': 0.01, 'gamma': 0.3, 'colsample_bytree': 0.8}</t>
-        </is>
-      </c>
       <c r="L20" s="8" t="n">
-        <v>0.05016421035023868</v>
+        <v>0.0484358012641434</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1779620624788568</v>
+        <v>0.1731633390168635</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.3714125642024546</v>
+        <v>0.4769682335469443</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2239736822714639</v>
+        <v>0.2200813514683683</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>28.9286835700689</v>
+        <v>30.03827017557784</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -28850,16 +28850,16 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.1015775054693222</v>
+        <v>0.10157748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2602084875106812</v>
+        <v>0.26020846</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8202759623527527</v>
+        <v>0.8202758999999999</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.3187122612472294</v>
+        <v>0.31871222618152</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>39.01793360710144</v>
@@ -28880,19 +28880,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05186289921402931</v>
+        <v>0.0518629</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1777838468551636</v>
+        <v>0.17778385</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.4727118611335754</v>
+        <v>0.47271186</v>
       </c>
       <c r="O22" s="8" t="n">
         <v>0.2277342732529061</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>30.81176280975342</v>
+        <v>30.81176280975341</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -28912,19 +28912,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03421881422400475</v>
+        <v>0.03421881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1507698148488998</v>
+        <v>0.15076981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2376504391431808</v>
+        <v>0.23765044</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1849832809310202</v>
+        <v>0.1849832708617577</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.7459579706192</v>
+        <v>22.74596095085144</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -28942,16 +28942,16 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.0333695076406002</v>
+        <v>0.033369504</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1435598433017731</v>
+        <v>0.14355983</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2291769981384277</v>
+        <v>0.22917695</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1826732263923758</v>
+        <v>0.1826732161957792</v>
       </c>
       <c r="P23" s="8" t="n">
         <v>21.56601995229721</v>
@@ -28974,19 +28974,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06656692922115326</v>
+        <v>0.066599555</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.199359729886055</v>
+        <v>0.1994063</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6737242937088013</v>
+        <v>0.6738982</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2580056767227288</v>
+        <v>0.2580688964474161</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>32.44481384754181</v>
+        <v>32.44973123073578</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -29004,19 +29004,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.05272258445620537</v>
+        <v>0.052890483</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.1832302510738373</v>
+        <v>0.18296282</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.5564935803413391</v>
+        <v>0.56040555</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2296139901142902</v>
+        <v>0.2299793105693576</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>31.14283084869385</v>
+        <v>31.06344938278198</v>
       </c>
     </row>
   </sheetData>
@@ -29316,19 +29316,19 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="F9" s="18" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
       <c r="I9" s="9" t="inlineStr">
         <is>
@@ -29346,19 +29346,19 @@
         </is>
       </c>
       <c r="L9" s="8" t="n">
-        <v>0.03533873515809639</v>
+        <v>0.0382909157547974</v>
       </c>
       <c r="M9" s="8" t="n">
-        <v>0.1523987492672792</v>
+        <v>0.1559947916821177</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.2472339444519311</v>
+        <v>0.3352068444892131</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.1879859972394125</v>
+        <v>0.1956806473691188</v>
       </c>
       <c r="P9" s="8" t="n">
-        <v>23.32505932938447</v>
+        <v>25.75823397175017</v>
       </c>
     </row>
     <row r="10" ht="27.95" customHeight="1">
@@ -29440,19 +29440,19 @@
         </is>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03866084845000534</v>
+        <v>0.0414772538681319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1569770101213317</v>
+        <v>0.1628944582644392</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2436191478703021</v>
+        <v>0.3282335370358294</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1966236212920649</v>
+        <v>0.2036596520377366</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>24.06875521113116</v>
+        <v>26.96425436632338</v>
       </c>
       <c r="I11" s="9" t="inlineStr">
         <is>
@@ -29470,19 +29470,19 @@
         </is>
       </c>
       <c r="L11" s="8" t="n">
-        <v>0.03865893860654303</v>
+        <v>0.041449391027853</v>
       </c>
       <c r="M11" s="8" t="n">
-        <v>0.1569673272606375</v>
+        <v>0.1628276843713243</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.2436192704876844</v>
+        <v>0.3281180002101269</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.1966187646348716</v>
+        <v>0.2035912351449666</v>
       </c>
       <c r="P11" s="8" t="n">
-        <v>24.06718148168309</v>
+        <v>26.95334356646961</v>
       </c>
     </row>
     <row r="12" ht="45.75" customHeight="1">
@@ -30018,19 +30018,19 @@
         </is>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.03928414323802915</v>
+        <v>0.0417904533094987</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1583265585977369</v>
+        <v>0.1639137522339672</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2457944721322727</v>
+        <v>0.3302368477649476</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1982022785893975</v>
+        <v>0.2044271344746062</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>24.28600325196454</v>
+        <v>27.13095279106868</v>
       </c>
       <c r="I20" s="9" t="inlineStr">
         <is>
@@ -30044,23 +30044,23 @@
       </c>
       <c r="K20" s="8" t="inlineStr">
         <is>
-          <t>{'subsample': 0.9, 'reg_lambda': 1.0, 'reg_alpha': 0, 'n_estimators': 100, 'min_child_weight': 5, 'max_depth': 3, 'learning_rate': 0.1, 'gamma': 0.2, 'colsample_bytree': 1.0}</t>
+          <t>{'subsample': 0.9, 'reg_lambda': 0.1, 'reg_alpha': 0.5, 'n_estimators': 600, 'min_child_weight': 5, 'max_depth': 10, 'learning_rate': 0.1, 'gamma': 0.1, 'colsample_bytree': 0.7}</t>
         </is>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0.04235283195936576</v>
+        <v>0.0335692421187765</v>
       </c>
       <c r="M20" s="8" t="n">
-        <v>0.1697655806035547</v>
+        <v>0.1413137417782593</v>
       </c>
       <c r="N20" s="8" t="n">
-        <v>0.2439579802029459</v>
+        <v>0.3041701494236987</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>0.2057980368209711</v>
+        <v>0.18321910958952</v>
       </c>
       <c r="P20" s="8" t="n">
-        <v>26.41839017711171</v>
+        <v>23.52420964705246</v>
       </c>
     </row>
     <row r="21" ht="45.75" customHeight="1">
@@ -30162,19 +30162,19 @@
         </is>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.08976226300001144</v>
+        <v>0.08976223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.2432740181684494</v>
+        <v>0.24327396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5964570045471191</v>
+        <v>0.59645694</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>0.2996035096590349</v>
+        <v>0.2996034599227603</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>35.33964455127716</v>
+        <v>35.33964157104492</v>
       </c>
       <c r="I22" s="9" t="inlineStr">
         <is>
@@ -30192,19 +30192,19 @@
         </is>
       </c>
       <c r="L22" s="8" t="n">
-        <v>0.05252010747790337</v>
+        <v>0.05252011</v>
       </c>
       <c r="M22" s="8" t="n">
-        <v>0.1800336390733719</v>
+        <v>0.18003364</v>
       </c>
       <c r="N22" s="8" t="n">
-        <v>0.45491623878479</v>
+        <v>0.45491624</v>
       </c>
       <c r="O22" s="8" t="n">
-        <v>0.229172658661332</v>
+        <v>0.2291726667890254</v>
       </c>
       <c r="P22" s="8" t="n">
-        <v>28.36576700210571</v>
+        <v>28.36576700210572</v>
       </c>
     </row>
     <row r="23" ht="30.75" customHeight="1">
@@ -30224,19 +30224,19 @@
         </is>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02319686114788055</v>
+        <v>0.023196863</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1352568566799164</v>
+        <v>0.13525687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2168560475111008</v>
+        <v>0.21685606</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.152305157981864</v>
+        <v>0.1523051640967098</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>19.7120875120163</v>
+        <v>19.71208900213242</v>
       </c>
       <c r="I23" s="9" t="inlineStr">
         <is>
@@ -30254,19 +30254,19 @@
         </is>
       </c>
       <c r="L23" s="8" t="n">
-        <v>0.03816625848412514</v>
+        <v>0.038166262</v>
       </c>
       <c r="M23" s="8" t="n">
-        <v>0.1538244783878326</v>
+        <v>0.15382448</v>
       </c>
       <c r="N23" s="8" t="n">
-        <v>0.2622193992137909</v>
+        <v>0.26221946</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>0.1953618654807666</v>
+        <v>0.1953618750150997</v>
       </c>
       <c r="P23" s="8" t="n">
-        <v>21.87339812517166</v>
+        <v>21.87340408563614</v>
       </c>
     </row>
     <row r="24" ht="30.75" customHeight="1">
@@ -30286,19 +30286,19 @@
         </is>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.04100747033953667</v>
+        <v>0.041229133</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1555681973695755</v>
+        <v>0.15642884</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4033159911632538</v>
+        <v>0.40468922</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2025030131616235</v>
+        <v>0.2030495815382926</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>25.18381476402283</v>
+        <v>25.29569268226624</v>
       </c>
       <c r="I24" s="9" t="inlineStr">
         <is>
@@ -30316,19 +30316,19 @@
         </is>
       </c>
       <c r="L24" s="8" t="n">
-        <v>0.045775406062603</v>
+        <v>0.04502717</v>
       </c>
       <c r="M24" s="8" t="n">
-        <v>0.173536017537117</v>
+        <v>0.17239352</v>
       </c>
       <c r="N24" s="8" t="n">
-        <v>0.4114319980144501</v>
+        <v>0.4067328</v>
       </c>
       <c r="O24" s="8" t="n">
-        <v>0.2139518779132424</v>
+        <v>0.2121960657747594</v>
       </c>
       <c r="P24" s="8" t="n">
-        <v>27.86145508289337</v>
+        <v>27.74564921855927</v>
       </c>
     </row>
   </sheetData>
